--- a/medicine/Psychotrope/Highland_Park_(distillerie)/Highland_Park_(distillerie).xlsx
+++ b/medicine/Psychotrope/Highland_Park_(distillerie)/Highland_Park_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Highland Park est une distillerie de whisky située à Kirkwall dans les îles Orcades en Écosse. C’est la plus septentrionale des distilleries écossaises (à ½ mile au nord de Scapa).
@@ -488,7 +500,7 @@
 C'est en 1825 que fut construite la distillerie actuelle sur le même site. En 1890, James Grant, déjà propriétaire de Glenlivet, acheta la distillerie et fit doubler sa production.
 Depuis 1937, la distillerie appartient au groupe Highland Distillers.
 Highland Park est une des dernières distilleries qui malte une partie de sa propre orge et qui utilise pour le séchage sa propre tourbe en provenance de Hobbister Moor. Cette tourbe permet d’élaborer un malt tourbé à la hauteur de 20 ppm (part par million) de phénol. La distillerie possède deux wash stills et deux spirit stills en forme d’oignons et pratique une double distillation. Ses whiskies possèdent une palette aromatique assez étendue où l’on retrouve des arômes floraux et épicés avec un voile de fumée.
-Michael Jackson, un des meilleurs spécialistes, auteur de différents livres sur les whiskies et les bières belges, rapporte que le Higland Park est le seul whisky qui ait jamais été noté 10 sur 10 par les dégustateurs du Scotsman, en 1984, le quotidien national des Écossais [1]
+Michael Jackson, un des meilleurs spécialistes, auteur de différents livres sur les whiskies et les bières belges, rapporte que le Higland Park est le seul whisky qui ait jamais été noté 10 sur 10 par les dégustateurs du Scotsman, en 1984, le quotidien national des Écossais 
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie produit un certain nombre de versions de son single malt en nom propre : 
 Highland Park 10 ans 40 %
